--- a/experiment_results/SBFL_ONLY/Summary/ZipMe/multiple_bugs.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/ZipMe/multiple_bugs.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04659498207885306</v>
+        <v>0.04609929078014185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.08422939068100356</v>
+        <v>0.08333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1362007168458782</v>
+        <v>0.1347517730496454</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2007168458781362</v>
+        <v>0.198581560283688</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2580645161290321</v>
+        <v>0.25531914893617</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1182795698924731</v>
+        <v>0.1170212765957447</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1935483870967742</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3118279569892473</v>
+        <v>0.3085106382978723</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4301075268817204</v>
+        <v>0.425531914893617</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5591397849462365</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>10.25806451612903</v>
+        <v>10.38297872340426</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>934.1827956989247</v>
+        <v>924.4787234042553</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.03225806451613</v>
+        <v>8.074468085106384</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>934.2043010752689</v>
+        <v>924.9468085106383</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.67741935483871</v>
+        <v>8.712765957446809</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>721.0860215053764</v>
+        <v>713.968085106383</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>21.09677419354839</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1012.698924731183</v>
+        <v>1002.5</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>21.09677419354839</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1012.698924731183</v>
+        <v>1002.5</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.236559139784946</v>
+        <v>8.276595744680851</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>724.0322580645161</v>
+        <v>716.7446808510638</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05734767025089606</v>
+        <v>0.05673758865248227</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06989247311827956</v>
+        <v>0.06914893617021275</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1612903225806452</v>
+        <v>0.1595744680851064</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1666666666666667</v>
+        <v>0.1648936170212767</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1756272401433693</v>
+        <v>0.173758865248227</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1182795698924731</v>
+        <v>0.1170212765957447</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1505376344086022</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3655913978494624</v>
+        <v>0.3617021276595745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.3763440860215054</v>
+        <v>0.3723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.3978494623655914</v>
+        <v>0.3936170212765958</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>19.58064516129032</v>
+        <v>19.71276595744681</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>949.9784946236559</v>
+        <v>941.563829787234</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>59.02150537634409</v>
+        <v>59.61702127659574</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>986.7204301075269</v>
+        <v>978.2659574468086</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2831541218637989</v>
+        <v>0.283687943262411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3315412186379924</v>
+        <v>0.335106382978723</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.351254480286738</v>
+        <v>0.3546099290780138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6989247311827957</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>151.8924731182796</v>
+        <v>150.3085106382979</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1505.709677419355</v>
+        <v>1489.925531914894</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.03225806451613</v>
+        <v>8.074468085106384</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>934.2043010752689</v>
+        <v>924.9468085106383</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.03225806451613</v>
+        <v>8.074468085106384</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>934.2043010752689</v>
+        <v>924.9468085106383</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.193548387096774</v>
+        <v>8.23404255319149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>935.7204301075269</v>
+        <v>926.2553191489362</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2831541218637989</v>
+        <v>0.283687943262411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3315412186379924</v>
+        <v>0.335106382978723</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.351254480286738</v>
+        <v>0.3546099290780138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6989247311827957</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>151.8924731182796</v>
+        <v>150.3085106382979</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1505.709677419355</v>
+        <v>1489.925531914894</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2831541218637989</v>
+        <v>0.283687943262411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3315412186379924</v>
+        <v>0.335106382978723</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.351254480286738</v>
+        <v>0.3546099290780138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6989247311827957</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>151.8924731182796</v>
+        <v>150.3085106382979</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1505.709677419355</v>
+        <v>1489.925531914894</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2831541218637989</v>
+        <v>0.283687943262411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3315412186379924</v>
+        <v>0.335106382978723</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.351254480286738</v>
+        <v>0.3546099290780138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6989247311827957</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>151.8924731182796</v>
+        <v>150.3085106382979</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1505.709677419355</v>
+        <v>1489.925531914894</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08064516129032255</v>
+        <v>0.07978723404255317</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.08602150537634405</v>
+        <v>0.08510638297872337</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964155</v>
+        <v>0.2712765957446805</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.301075268817204</v>
+        <v>0.3049645390070919</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.333333333333333</v>
+        <v>0.3368794326241132</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1935483870967742</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2043010752688172</v>
+        <v>0.2021276595744681</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6666666666666666</v>
+        <v>0.6702127659574468</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6989247311827957</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.7340425531914894</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>9.161290322580646</v>
+        <v>9.095744680851064</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>936.989247311828</v>
+        <v>927.3297872340426</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2903225806451609</v>
+        <v>0.2907801418439712</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333329</v>
+        <v>0.3368794326241131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3584229390681001</v>
+        <v>0.3617021276595742</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7096774193548387</v>
+        <v>0.7127659574468085</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7849462365591398</v>
+        <v>0.7872340425531915</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7849462365591398</v>
+        <v>0.7872340425531915</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.903225806451613</v>
+        <v>6.861702127659575</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>970.5698924731183</v>
+        <v>960.4787234042553</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2831541218637989</v>
+        <v>0.283687943262411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3315412186379924</v>
+        <v>0.335106382978723</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.351254480286738</v>
+        <v>0.3546099290780138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6989247311827957</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>151.8924731182796</v>
+        <v>150.3085106382979</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1505.709677419355</v>
+        <v>1489.925531914894</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07706093189964155</v>
+        <v>0.07624113475177303</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07706093189964155</v>
+        <v>0.07624113475177303</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.25089605734767</v>
+        <v>0.2482269503546097</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2741935483870964</v>
+        <v>0.2712765957446805</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2992831541218635</v>
+        <v>0.2960992907801415</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1720430107526882</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1720430107526882</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6021505376344086</v>
+        <v>0.5957446808510638</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6774193548387096</v>
+        <v>0.6702127659574468</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>21.6236559139785</v>
+        <v>21.6063829787234</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1052.129032258065</v>
+        <v>1041.617021276596</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.03225806451613</v>
+        <v>8.074468085106384</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>934.2043010752689</v>
+        <v>924.9468085106383</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2706093189964154</v>
+        <v>0.2677304964539004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3028673835125443</v>
+        <v>0.2996453900709216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3189964157706089</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.648936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.03225806451613</v>
+        <v>8.074468085106384</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>934.2043010752689</v>
+        <v>924.9468085106383</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2903225806451609</v>
+        <v>0.2907801418439712</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333329</v>
+        <v>0.3368794326241131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3584229390681001</v>
+        <v>0.3617021276595742</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7096774193548387</v>
+        <v>0.7127659574468085</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7849462365591398</v>
+        <v>0.7872340425531915</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7849462365591398</v>
+        <v>0.7872340425531915</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.903225806451613</v>
+        <v>6.861702127659575</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>718.8172043010753</v>
+        <v>711.4042553191489</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03763440860215054</v>
+        <v>0.03723404255319149</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.05555555555555555</v>
+        <v>0.05496453900709219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.08960573476702507</v>
+        <v>0.08865248226950354</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.0949820788530466</v>
+        <v>0.09397163120567377</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1039426523297491</v>
+        <v>0.1028368794326242</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.07526881720430108</v>
+        <v>0.07446808510638298</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1182795698924731</v>
+        <v>0.1170212765957447</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.1935483870967742</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2043010752688172</v>
+        <v>0.2021276595744681</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2258064516129032</v>
+        <v>0.2234042553191489</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>30.53763440860215</v>
+        <v>30.5531914893617</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>591.247311827957</v>
+        <v>586.6489361702128</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.268817204301075</v>
+        <v>0.2695035460992904</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3118279569892469</v>
+        <v>0.3156028368794322</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3369175627240141</v>
+        <v>0.3404255319148933</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6559139784946236</v>
+        <v>0.6595744680851063</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7311827956989247</v>
+        <v>0.7340425531914894</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7311827956989247</v>
+        <v>0.7340425531914894</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>10.1505376344086</v>
+        <v>10.07446808510638</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>939.4193548387096</v>
+        <v>929.7340425531914</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04659498207885306</v>
+        <v>0.04609929078014185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.08422939068100356</v>
+        <v>0.08333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1362007168458782</v>
+        <v>0.1347517730496454</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2007168458781362</v>
+        <v>0.198581560283688</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2544802867383511</v>
+        <v>0.2517730496453899</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1182795698924731</v>
+        <v>0.1170212765957447</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1935483870967742</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3118279569892473</v>
+        <v>0.3085106382978723</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4301075268817204</v>
+        <v>0.425531914893617</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3519,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5591397849462365</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>10.25806451612903</v>
+        <v>10.38297872340426</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>934.1935483870968</v>
+        <v>924.4893617021277</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09318996415770608</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.25089605734767</v>
+        <v>0.2482269503546097</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2831541218637989</v>
+        <v>0.2801418439716308</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2992831541218635</v>
+        <v>0.2960992907801415</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2150537634408602</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6021505376344086</v>
+        <v>0.5957446808510638</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6774193548387096</v>
+        <v>0.6702127659574468</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6774193548387096</v>
+        <v>0.6702127659574468</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>10.89247311827957</v>
+        <v>11.03191489361702</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>937.9784946236559</v>
+        <v>928.8085106382979</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>59.02150537634409</v>
+        <v>59.61702127659574</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>986.7204301075269</v>
+        <v>978.2659574468086</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2831541218637989</v>
+        <v>0.283687943262411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3315412186379924</v>
+        <v>0.335106382978723</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.351254480286738</v>
+        <v>0.3546099290780138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6989247311827957</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>151.8924731182796</v>
+        <v>150.3085106382979</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1505.709677419355</v>
+        <v>1489.925531914894</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3956,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1129032258064517</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2831541218637989</v>
+        <v>0.283687943262411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3315412186379924</v>
+        <v>0.335106382978723</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.351254480286738</v>
+        <v>0.3546099290780138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2688172043010753</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6989247311827957</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7741935483870968</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>151.8924731182796</v>
+        <v>150.3085106382979</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1505.709677419355</v>
+        <v>1489.925531914894</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06630824372759855</v>
+        <v>0.06560283687943262</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06989247311827956</v>
+        <v>0.06914893617021275</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2258064516129031</v>
+        <v>0.2234042553191488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.236559139784946</v>
+        <v>0.2340425531914891</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2455197132616485</v>
+        <v>0.2429078014184395</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1397849462365591</v>
+        <v>0.1382978723404255</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1505376344086022</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5268817204301075</v>
+        <v>0.5212765957446809</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5483870967741935</v>
+        <v>0.5425531914893617</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5698924731182796</v>
+        <v>0.5638297872340425</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>39.72043010752688</v>
+        <v>39.90425531914894</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4165,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1047.494623655914</v>
+        <v>1039.031914893617</v>
       </c>
     </row>
   </sheetData>
